--- a/4-Te-dhenat-per-kataster/regjistri/17-Regjistri-i-ndërrimeve-për-ndertesë-743-0-Djellza-leg.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/17-Regjistri-i-ndërrimeve-për-ndertesë-743-0-Djellza-leg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\4-Te-dhenat-per-kataster\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\743-0-Djellza-leg\4-Te-dhenat-per-kataster\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Nr</t>
   </si>
@@ -86,49 +86,40 @@
     <t>Pronari / Shfrytëzuesi                                                                      Emri (Emri i prindit) Mbiemri</t>
   </si>
   <si>
-    <t>P+4+NK</t>
-  </si>
-  <si>
     <t>Kati 1</t>
   </si>
   <si>
-    <t>Nënkulm</t>
-  </si>
-  <si>
-    <t>Rr. " Brahim Ademaj"</t>
-  </si>
-  <si>
     <t>Afarizëm/Banim</t>
   </si>
   <si>
     <t>Ferizaj</t>
   </si>
   <si>
-    <t>O-72217092-00565-6-____-___</t>
-  </si>
-  <si>
     <t>SARAISHTE</t>
   </si>
   <si>
-    <t>Gjeodeti/kompania e licencuar: SEAD PRUSHI</t>
-  </si>
-  <si>
-    <t>Nr i licencës: 152</t>
-  </si>
-  <si>
-    <t>Shefki (Musli) Ugzmajli</t>
-  </si>
-  <si>
     <t>Gjithsej:</t>
   </si>
   <si>
-    <t>Kati 2</t>
-  </si>
-  <si>
-    <t>Kati 3</t>
-  </si>
-  <si>
-    <t>Kati 4</t>
+    <t>O-72217092-00743-14-____-___</t>
+  </si>
+  <si>
+    <t>P+0</t>
+  </si>
+  <si>
+    <t>P+1</t>
+  </si>
+  <si>
+    <t>Gjeodeti/kompania e licencuar: LIRIDON SEJDIU</t>
+  </si>
+  <si>
+    <t>Rr. "Mitrush Kurteli"</t>
+  </si>
+  <si>
+    <t>Nr i licencës: 140</t>
+  </si>
+  <si>
+    <t>Fahrije (Qazim)  Bakija</t>
   </si>
 </sst>
 </file>
@@ -446,7 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -488,7 +479,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,30 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -943,7 +940,7 @@
   <dimension ref="A1:Q672"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O17"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +948,7 @@
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="4" customWidth="1"/>
@@ -966,170 +963,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1165,11 +1162,11 @@
       <c r="K10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="10" t="s">
         <v>9</v>
       </c>
@@ -1178,195 +1175,239 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="24">
         <v>1</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
+      <c r="E11" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="12">
-        <v>208.47</v>
-      </c>
-      <c r="H11" s="14">
-        <v>208.47</v>
-      </c>
-      <c r="I11" s="14" t="s">
+        <v>80.459999999999994</v>
+      </c>
+      <c r="H11" s="22">
+        <v>80.459999999999994</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="22">
+        <v>1004518183</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="11">
+        <v>80.459999999999994</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="14">
-        <v>250018287</v>
-      </c>
-      <c r="P11" s="16" t="s">
+      <c r="G13" s="13">
+        <f>SUM(G11:G12)</f>
+        <v>160.91999999999999</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>1</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="14">
+        <v>31.99</v>
+      </c>
+      <c r="H17" s="22">
+        <v>31.99</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="22">
+        <v>1004518183</v>
+      </c>
+      <c r="P17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="11">
-        <v>252.09</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="11">
-        <v>252.09</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="11">
-        <v>252.09</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="11">
-        <v>252.09</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="11">
-        <v>136.41</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="13">
-        <f>SUM(G11:G16)</f>
-        <v>1353.24</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(G17:G17)</f>
+        <v>31.99</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
@@ -1385,46 +1426,46 @@
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="26"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="36"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="27"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1746,30 +1787,44 @@
       <c r="P672" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="33">
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="I25:P26"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="A4:P8"/>
     <mergeCell ref="A1:P3"/>
     <mergeCell ref="A9:P9"/>
     <mergeCell ref="L10:N10"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="H11:H17"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="K11:K17"/>
-    <mergeCell ref="O11:O17"/>
-    <mergeCell ref="P11:P17"/>
-    <mergeCell ref="L11:N17"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E25:H26"/>
-    <mergeCell ref="I25:P26"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="L11:N13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter differentOddEven="1"/>
   <drawing r:id="rId2"/>
 </worksheet>
